--- a/output/missing-values-condom_lastsex.xlsx
+++ b/output/missing-values-condom_lastsex.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -98,18 +101,39 @@
     <t xml:space="preserve">TSH0027</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0080</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0312</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0373</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0437</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0731</t>
   </si>
   <si>
@@ -122,12 +146,24 @@
     <t xml:space="preserve">TSH0787</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0834</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0857</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0916</t>
   </si>
   <si>
@@ -140,9 +176,15 @@
     <t xml:space="preserve">TSH0927</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0939</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0943</t>
   </si>
   <si>
@@ -233,6 +275,9 @@
     <t xml:space="preserve">TSH1293</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1386</t>
   </si>
   <si>
@@ -290,6 +335,9 @@
     <t xml:space="preserve">TSH1633</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1693</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1802</t>
   </si>
   <si>
@@ -297,6 +345,9 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
   </si>
 </sst>
 </file>
@@ -794,7 +845,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -818,7 +869,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -830,7 +881,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -1208,45 +1259,147 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>103</v>
+      </c>
+      <c r="B111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>103</v>
+      </c>
+      <c r="B112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>104</v>
+      </c>
+      <c r="B113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
